--- a/exp/asxwr.xlsx
+++ b/exp/asxwr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>start time (min)</t>
   </si>
@@ -28,37 +28,202 @@
     <t>00:00:00</t>
   </si>
   <si>
+    <t>00:01:08</t>
+  </si>
+  <si>
+    <t>00:02:27</t>
+  </si>
+  <si>
+    <t>00:20:76</t>
+  </si>
+  <si>
+    <t>00:22:19</t>
+  </si>
+  <si>
+    <t>00:32:75</t>
+  </si>
+  <si>
     <t>00:34:93</t>
   </si>
   <si>
-    <t>01:16:81</t>
-  </si>
-  <si>
-    <t>01:47:29</t>
+    <t>00:42:74</t>
+  </si>
+  <si>
+    <t>00:43:93</t>
+  </si>
+  <si>
+    <t>00:44:89</t>
+  </si>
+  <si>
+    <t>00:46:10</t>
+  </si>
+  <si>
+    <t>00:47:29</t>
+  </si>
+  <si>
+    <t>00:48:74</t>
+  </si>
+  <si>
+    <t>00:50:17</t>
+  </si>
+  <si>
+    <t>00:50:65</t>
+  </si>
+  <si>
+    <t>00:52:10</t>
+  </si>
+  <si>
+    <t>00:54:50</t>
+  </si>
+  <si>
+    <t>00:56:65</t>
+  </si>
+  <si>
+    <t>00:59:78</t>
+  </si>
+  <si>
+    <t>01:00:97</t>
+  </si>
+  <si>
+    <t>01:02:17</t>
+  </si>
+  <si>
+    <t>01:06:50</t>
+  </si>
+  <si>
+    <t>01:07:70</t>
+  </si>
+  <si>
+    <t>01:09:85</t>
+  </si>
+  <si>
+    <t>01:11:06</t>
+  </si>
+  <si>
+    <t>01:17:54</t>
+  </si>
+  <si>
+    <t>01:19:70</t>
+  </si>
+  <si>
+    <t>01:27:37</t>
+  </si>
+  <si>
+    <t>01:29:06</t>
+  </si>
+  <si>
+    <t>01:29:78</t>
+  </si>
+  <si>
+    <t>01:31:45</t>
+  </si>
+  <si>
+    <t>01:42:01</t>
+  </si>
+  <si>
+    <t>01:43:45</t>
+  </si>
+  <si>
+    <t>01:51:37</t>
+  </si>
+  <si>
+    <t>01:52:57</t>
   </si>
   <si>
     <t>01:59:43</t>
   </si>
   <si>
-    <t>02:26:43</t>
-  </si>
-  <si>
-    <t>03:02:66</t>
-  </si>
-  <si>
-    <t>03:37:71</t>
+    <t>02:01:95</t>
+  </si>
+  <si>
+    <t>02:13:71</t>
+  </si>
+  <si>
+    <t>02:15:15</t>
+  </si>
+  <si>
+    <t>02:27:38</t>
+  </si>
+  <si>
+    <t>02:28:59</t>
+  </si>
+  <si>
+    <t>02:31:46</t>
+  </si>
+  <si>
+    <t>02:32:66</t>
+  </si>
+  <si>
+    <t>02:35:31</t>
+  </si>
+  <si>
+    <t>02:36:50</t>
+  </si>
+  <si>
+    <t>02:37:71</t>
+  </si>
+  <si>
+    <t>03:32:66</t>
+  </si>
+  <si>
+    <t>03:34:34</t>
+  </si>
+  <si>
+    <t>03:47:31</t>
+  </si>
+  <si>
+    <t>03:48:75</t>
+  </si>
+  <si>
+    <t>00:02:28</t>
+  </si>
+  <si>
+    <t>00:22:20</t>
   </si>
   <si>
     <t>00:34:36</t>
   </si>
   <si>
+    <t>00:42:73</t>
+  </si>
+  <si>
+    <t>00:43:94</t>
+  </si>
+  <si>
+    <t>00:47:30</t>
+  </si>
+  <si>
+    <t>00:48:73</t>
+  </si>
+  <si>
+    <t>00:52:09</t>
+  </si>
+  <si>
+    <t>00:59:77</t>
+  </si>
+  <si>
+    <t>01:00:98</t>
+  </si>
+  <si>
+    <t>01:31:46</t>
+  </si>
+  <si>
     <t>01:59:34</t>
   </si>
   <si>
-    <t>03:02:67</t>
-  </si>
-  <si>
-    <t>03:37:70</t>
+    <t>02:27:39</t>
+  </si>
+  <si>
+    <t>02:28:58</t>
+  </si>
+  <si>
+    <t>02:35:30</t>
+  </si>
+  <si>
+    <t>02:37:70</t>
+  </si>
+  <si>
+    <t>03:32:67</t>
   </si>
   <si>
     <t>03:57:75</t>
@@ -430,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -469,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -486,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -497,10 +662,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -514,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -525,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -539,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -553,14 +718,602 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>3</v>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:G9">
+  <conditionalFormatting sqref="D2:G51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
